--- a/docentes/Ruiz Delgado Nemi - Estadisticos 20242.xlsx
+++ b/docentes/Ruiz Delgado Nemi - Estadisticos 20242.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="48">
   <si>
     <t>Mat</t>
   </si>
@@ -79,34 +79,49 @@
     <t>Reprobadas</t>
   </si>
   <si>
+    <t>PLIEGO</t>
+  </si>
+  <si>
+    <t>TRUJILLO</t>
+  </si>
+  <si>
+    <t>VALDIVIA</t>
+  </si>
+  <si>
+    <t>GARIBAY</t>
+  </si>
+  <si>
+    <t>OLMOS</t>
+  </si>
+  <si>
     <t>BAEZ</t>
   </si>
   <si>
-    <t>ESTEVEZ</t>
+    <t>FLORES</t>
   </si>
   <si>
     <t>GONZALEZ</t>
   </si>
   <si>
-    <t>PLIEGO</t>
-  </si>
-  <si>
     <t>ROSAS</t>
   </si>
   <si>
-    <t>VALDIVIA</t>
-  </si>
-  <si>
-    <t>FLORES</t>
-  </si>
-  <si>
-    <t>REYES</t>
+    <t>TORRES</t>
+  </si>
+  <si>
+    <t>TENORIO</t>
+  </si>
+  <si>
+    <t>GOMEZ</t>
+  </si>
+  <si>
+    <t>ORTEGA</t>
   </si>
   <si>
     <t>LOPEZ</t>
   </si>
   <si>
-    <t>MARIN</t>
+    <t>LOBATO</t>
   </si>
   <si>
     <t>CRUZ</t>
@@ -118,19 +133,25 @@
     <t>GARRIDO</t>
   </si>
   <si>
-    <t>TENORIO</t>
-  </si>
-  <si>
-    <t>LOBATO</t>
-  </si>
-  <si>
-    <t>COXCAHUA</t>
+    <t>MYA YAMILET</t>
+  </si>
+  <si>
+    <t>VALERIA</t>
+  </si>
+  <si>
+    <t>IKER YHAIR</t>
+  </si>
+  <si>
+    <t>LIZBETH MARIAM</t>
+  </si>
+  <si>
+    <t>ANGEL GABRIEL</t>
   </si>
   <si>
     <t>ULISES EZEQUIEL</t>
   </si>
   <si>
-    <t>ESTRELLA MONTSERRAT</t>
+    <t>MARIANA</t>
   </si>
   <si>
     <t>JESUS</t>
@@ -140,15 +161,6 @@
   </si>
   <si>
     <t>YOSELYN</t>
-  </si>
-  <si>
-    <t>IKER YHAIR</t>
-  </si>
-  <si>
-    <t>MARIANA</t>
-  </si>
-  <si>
-    <t>CRISTAL</t>
   </si>
 </sst>
 </file>
@@ -698,16 +710,19 @@
         <v>49</v>
       </c>
       <c r="D2">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>81.63</v>
+      </c>
+      <c r="H2">
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -721,16 +736,19 @@
         <v>38</v>
       </c>
       <c r="D3">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>89.47</v>
+      </c>
+      <c r="H3">
+        <v>7.8</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -744,16 +762,19 @@
         <v>40</v>
       </c>
       <c r="D4">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>97.5</v>
+      </c>
+      <c r="H4">
+        <v>9.6</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -767,16 +788,19 @@
         <v>38</v>
       </c>
       <c r="D5">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>97.37</v>
+      </c>
+      <c r="H5">
+        <v>8.800000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -835,16 +859,16 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F2">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G2">
-        <v>73.47</v>
+        <v>81.63</v>
       </c>
       <c r="H2">
-        <v>7</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -870,7 +894,7 @@
         <v>89.47</v>
       </c>
       <c r="H3">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -913,16 +937,16 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G5">
-        <v>94.73999999999999</v>
+        <v>97.37</v>
       </c>
       <c r="H5">
-        <v>8.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -932,7 +956,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -967,16 +991,16 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>24330051920169</v>
+        <v>24330051920117</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -990,16 +1014,16 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>24330051920250</v>
+        <v>24330051920348</v>
       </c>
       <c r="B3" t="s">
         <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -1013,7 +1037,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>24330051920132</v>
+        <v>24330051920341</v>
       </c>
       <c r="B4" t="s">
         <v>22</v>
@@ -1022,13 +1046,13 @@
         <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G4">
         <v>4</v>
@@ -1036,7 +1060,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>24330051920351</v>
+        <v>24330051920345</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
@@ -1045,7 +1069,7 @@
         <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
@@ -1054,12 +1078,12 @@
         <v>10</v>
       </c>
       <c r="G5">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>24330051920120</v>
+        <v>23330051920263</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -1068,21 +1092,21 @@
         <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G6">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>24330051920341</v>
+        <v>24330051920169</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
@@ -1091,16 +1115,16 @@
         <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G7">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1114,7 +1138,7 @@
         <v>34</v>
       </c>
       <c r="D8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E8" t="s">
         <v>8</v>
@@ -1123,12 +1147,12 @@
         <v>10</v>
       </c>
       <c r="G8">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>24330051920091</v>
+        <v>24330051920132</v>
       </c>
       <c r="B9" t="s">
         <v>27</v>
@@ -1137,7 +1161,7 @@
         <v>35</v>
       </c>
       <c r="D9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E9" t="s">
         <v>8</v>
@@ -1146,7 +1170,53 @@
         <v>10</v>
       </c>
       <c r="G9">
-        <v>3</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>24330051920351</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>24330051920120</v>
+      </c>
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
